--- a/shared/test/TestCase_Nhom13.xlsx
+++ b/shared/test/TestCase_Nhom13.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquocvy/Documents/PhamQuocVy/quan_ly_thue_xe/shared/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC70A11C-9C55-0546-8787-F874D2BBF760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB7D95-88C9-B94D-92F9-BC9DA481E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase EndUser" sheetId="17" r:id="rId1"/>
     <sheet name="TestCase Admin" sheetId="21" r:id="rId2"/>
+    <sheet name="TestCase KeToan" sheetId="22" r:id="rId3"/>
+    <sheet name="TestCase BaiXe" sheetId="23" r:id="rId4"/>
+    <sheet name="TestCase KinhDoanh" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -482,6 +485,102 @@
       </rPr>
       <t>Đặt xe thành công, vui lòng đợi xác nhận từ nhân viên</t>
     </r>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Giao diện trang thông tin chi tiết xe</t>
+  </si>
+  <si>
+    <t>Danh sách xe yêu thích</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách xe đã lưu</t>
+  </si>
+  <si>
+    <t>- Chọn icon hình user ở trang chủ chọn button Xe đã lưu</t>
+  </si>
+  <si>
+    <t>- Hiển thị danh sách xe mà khách hàng đã lưu lại</t>
+  </si>
+  <si>
+    <t>Xem chi tiết xe từ danh sách xe đã lưu</t>
+  </si>
+  <si>
+    <t>- Chọn button Xem chi tiết xe cần tìm thông tin chi tiết</t>
+  </si>
+  <si>
+    <t>- Chuyển sang trang thông tin chi tiết xe mà khách hàng chọn</t>
+  </si>
+  <si>
+    <t>Xoá một xe ra khỏi danh sách yêu thích</t>
+  </si>
+  <si>
+    <t>- Chọn button Xoá xe cần xoá trong danh sách xe đã lưu</t>
+  </si>
+  <si>
+    <t>- Hiển thị popup xác nhận xoá và xoá xe ra khỏi danh sách</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Giao diện trang danh sách xe yêu thích</t>
+  </si>
+  <si>
+    <t>- Nhập mật khẩu hiện tại không đúng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo mật khẩu cũ không đúng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo mật khẩu hiện tại, mật khẩu mới, mật khẩu xác nhận không được để trống</t>
+  </si>
+  <si>
+    <t>- Nhập mật khẩu xác nhận không khớp với mật khẩu mới</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo mật khẩu xác nhận không khớp</t>
+  </si>
+  <si>
+    <t>- Chọn button Huỷ</t>
+  </si>
+  <si>
+    <t>- Chuyển hướng về trang ban đầu trước khi chuyển sang trang quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút</t>
+  </si>
+  <si>
+    <t>- Chọn button Gửi yêu cầu</t>
+  </si>
+  <si>
+    <t>- Nếu người dùng đã nhập đúng thông tin sẽ xoá người dùng ra khỏi phiên đăng nhập, sau đó chuyển hướng sang trang Đăng nhập và hiển thị thông báo Gửi yêu cầu thành công vui lòng đăng nhập lại</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Giao diện trang đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>7.3</t>
   </si>
 </sst>
 </file>
@@ -581,7 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,80 +704,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1091,606 +1191,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C45"/>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="12"/>
-    <col min="2" max="2" width="6.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="12" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:6" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>3</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="35" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="32"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="35" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="35" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="32"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="B29" s="17">
         <v>4</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="16"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="26"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="35" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="26"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="35" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="26"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="35" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="26"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="35" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="26"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="35" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="26"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="35" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="26"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="35" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="21">
+      <c r="B41" s="17">
         <v>5</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="16"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="26"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="40" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="26"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="40" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="17">
+        <v>6</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="17">
+        <v>7</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B54" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="35"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="34"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="34"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="35"/>
+    </row>
+    <row r="57" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B57" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="35"/>
+    </row>
+    <row r="58" spans="2:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="B58" s="31"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="35"/>
+    </row>
+    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C31:C38"/>
     <mergeCell ref="C43:C45"/>
@@ -1714,7 +1993,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1927,4 +2206,664 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F0715A-27DB-DD4D-81B1-3B7ACF8E7DFD}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862FA523-0B51-6D4A-91A8-B5E37B406A12}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A452D7B-780B-AB4E-B03B-C707A2E15038}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/shared/test/TestCase_Nhom13.xlsx
+++ b/shared/test/TestCase_Nhom13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquocvy/Documents/PhamQuocVy/quan_ly_thue_xe/shared/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB7D95-88C9-B94D-92F9-BC9DA481E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E16F3-A725-EB40-BC24-804DFC645282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase EndUser" sheetId="17" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="264">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -581,6 +581,291 @@
   </si>
   <si>
     <t>7.3</t>
+  </si>
+  <si>
+    <t>Liên hệ với chúng tôi</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo Họ và Tên, Email, Tiêu đề, Nội dung không được để trống</t>
+  </si>
+  <si>
+    <t>- Nhập email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo nhập email đúng định dạng</t>
+  </si>
+  <si>
+    <t>Kiểm tra Gửi thông tin</t>
+  </si>
+  <si>
+    <t>- Chọn Gửi</t>
+  </si>
+  <si>
+    <t>- Thông báo cảm ơn bạn đã gửi liên hệ cho chúng tôi. Chúng tôi sẽ liên hệ lại với bạn trong thời gian sớm nhất.</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Giao diện trang Liên hệ với chúng tôi</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách khách hàng có trên hệ thống</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết khách hàng</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>- Chọn vào cột mã</t>
+  </si>
+  <si>
+    <t>- Kiểm tra có load đầy đủ các thông tin cá nhân khách hàng trên form cập nhật</t>
+  </si>
+  <si>
+    <t>- Nhập số điện thoại không đúng định dạng: 123assasszz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhập số điện thoại đã tồn tại trên hệ thống: 0859887543</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút trang cập nhật thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Chọn button Huỷ </t>
+  </si>
+  <si>
+    <t>- Chọn button Cập nhật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn button xoá </t>
+  </si>
+  <si>
+    <t>- Chọn button xoá đối với khách hàng cần xoá trong danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Cập nhật đúng thông tin</t>
+  </si>
+  <si>
+    <t>- Nhập đầy đủ và chính xác các thông tin</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách nhân viên có trên hệ thống</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>- Kiểm tra có load đầy đủ các thông tin nhân viên trên form cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ tất cả thông tin khách hàng trên Form cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo không được bỏ trống thông tin</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo số điện thoại đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>Thông báo địa chỉ email đã tồn tại trên hệ thống</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Số CMND 241800582 đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Quay lại trang danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị Cập nhật thông tin thành công</t>
+  </si>
+  <si>
+    <t>Hiển thị alert xác nhận xoá,chọn tiếp tục và thực hiện xoá khách hàng ra khỏi danh sách và thông báo</t>
+  </si>
+  <si>
+    <t>- Nhập tên đăng Nhập đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo tên đăng nhập đã tồn tại</t>
+  </si>
+  <si>
+    <t>- Nhập email đã được sử dụng trên hệ thống</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo email đã được sử dụng</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút form cập nhật thông tin</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>- Chọn button cập nhật khi đã điền đầy đủ thông tin và chính xác</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật thông tin thành công</t>
+  </si>
+  <si>
+    <t>Form thêm nhân viên</t>
+  </si>
+  <si>
+    <t>- Chọn button Thêm ở leftbar Nhân viên</t>
+  </si>
+  <si>
+    <t>Chuyển sang form thêm nhân viên</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Để trống dữ liệu </t>
+  </si>
+  <si>
+    <t>Thông báo không được để trống thông tin</t>
+  </si>
+  <si>
+    <t>- Nhập mật khẩu xác nhận không khớp với mật khẩu tạo mới</t>
+  </si>
+  <si>
+    <t>Thông báo mật khẩu không khớp</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút form tạo thông tin</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>- Chọn button tạo khi đã điền đầy đủ thông tin và chính xác</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo thêm nhân viên thành công</t>
+  </si>
+  <si>
+    <t>- Chọn button xoá đối với nhân viên cần xoá trong danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Hiển thị alert xác nhận xoá,chọn tiếp tục và thực hiện xoá nhân viên ra khỏi danh sách và thông báo</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>- Kiểm tra có load đầy đủ các thông tin bảng giá trên form cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ tất cả thông tin nhân viên trên Form cập nhật</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin bảng giá thuê</t>
+  </si>
+  <si>
+    <t>Quản lý bảng báo giá</t>
+  </si>
+  <si>
+    <t>Danh sách bảng báo giá xe</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách bảng báo giá xe</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết thông tin bảng báo giá</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết bảng báo giá xe</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ tất cả thông tin bảng báo giá thuê xe trên Form cập nhật</t>
+  </si>
+  <si>
+    <t>- Bỏ trống thông tin đơn giá</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi giá trị không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút form cập nhật bảng báo giá</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang danh sách bảng báo giá</t>
+  </si>
+  <si>
+    <t>- Chọn button Cập nhật khi đã điền đầy đủ thông tin và chính xác</t>
+  </si>
+  <si>
+    <t>Thông báo cập nhật thành công</t>
+  </si>
+  <si>
+    <t>- Chọn button xoá đối với bảng báo giá cần xoá trong danh sách</t>
+  </si>
+  <si>
+    <t>Hiển thị alert xác nhận xoá,chọn tiếp tục và thực hiện xoá bảng báo giá ra khỏi danh sách và thông báo</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Quản lý báo cáo</t>
   </si>
 </sst>
 </file>
@@ -680,7 +965,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,27 +1043,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1191,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F59"/>
+  <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1321,10 +1624,10 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1336,8 +1639,8 @@
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="25" t="s">
         <v>111</v>
       </c>
@@ -1347,8 +1650,8 @@
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
@@ -1358,8 +1661,8 @@
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1369,8 +1672,8 @@
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="25" t="s">
         <v>56</v>
       </c>
@@ -1380,8 +1683,8 @@
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="25" t="s">
         <v>58</v>
       </c>
@@ -1391,8 +1694,8 @@
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="25" t="s">
         <v>60</v>
       </c>
@@ -1458,10 +1761,10 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -1473,8 +1776,8 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="25" t="s">
         <v>74</v>
       </c>
@@ -1484,8 +1787,8 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="25" t="s">
         <v>76</v>
       </c>
@@ -1495,10 +1798,10 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1510,8 +1813,8 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="34"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="25" t="s">
         <v>80</v>
       </c>
@@ -1521,7 +1824,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -1536,7 +1839,7 @@
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="34"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="23" t="s">
         <v>86</v>
       </c>
@@ -1590,10 +1893,10 @@
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -1605,8 +1908,8 @@
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="25" t="s">
         <v>103</v>
       </c>
@@ -1616,8 +1919,8 @@
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="25" t="s">
         <v>105</v>
       </c>
@@ -1627,8 +1930,8 @@
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="25" t="s">
         <v>107</v>
       </c>
@@ -1638,8 +1941,8 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="25" t="s">
         <v>106</v>
       </c>
@@ -1649,8 +1952,8 @@
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="25" t="s">
         <v>110</v>
       </c>
@@ -1660,8 +1963,8 @@
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="25" t="s">
         <v>113</v>
       </c>
@@ -1671,8 +1974,8 @@
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="25" t="s">
         <v>58</v>
       </c>
@@ -1738,10 +2041,10 @@
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="38" t="s">
         <v>124</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -1753,8 +2056,8 @@
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="31"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="25" t="s">
         <v>127</v>
       </c>
@@ -1764,8 +2067,8 @@
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="31"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="25" t="s">
         <v>129</v>
       </c>
@@ -1828,7 +2131,7 @@
       <c r="E49" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="18" t="s">
@@ -1843,7 +2146,7 @@
       <c r="E50" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="18" t="s">
@@ -1852,13 +2155,13 @@
       <c r="C51" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="32" t="s">
         <v>147</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="18" t="s">
@@ -1887,67 +2190,67 @@
       <c r="F53" s="20"/>
     </row>
     <row r="54" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F54" s="35"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="37" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="25" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="35"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="34"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="37" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="25" t="s">
         <v>158</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="25" t="s">
         <v>160</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="35"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="2:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="B58" s="31"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="37" t="s">
+      <c r="B58" s="36"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="25" t="s">
         <v>163</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="35"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="18" t="s">
@@ -1962,10 +2265,87 @@
       <c r="E59" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="35"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="17">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B61" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B63" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B58"/>
@@ -1974,13 +2354,6 @@
     <mergeCell ref="C31:C38"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1990,219 +2363,631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01270438-8745-B841-99FA-7E7A7E2E8A02}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="B6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="36"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C19" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="36"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="36"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B37" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E38" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8">
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C39" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B42" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="37"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B46" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="17">
+        <v>4</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2652,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A452D7B-780B-AB4E-B03B-C707A2E15038}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/shared/test/TestCase_Nhom13.xlsx
+++ b/shared/test/TestCase_Nhom13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquocvy/Documents/PhamQuocVy/quan_ly_thue_xe/shared/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E16F3-A725-EB40-BC24-804DFC645282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3A705D-1333-134C-858F-2BE31E94AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-20" yWindow="500" windowWidth="38400" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase EndUser" sheetId="17" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="291">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -866,6 +866,87 @@
   </si>
   <si>
     <t>Quản lý báo cáo</t>
+  </si>
+  <si>
+    <t>Quản lý hợp đồng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hợp đồng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tất cả hợp đồng trên hệ thống</t>
+  </si>
+  <si>
+    <t>Chọn cột mã hợp đồng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết hợp đồng thuê xe</t>
+  </si>
+  <si>
+    <t>Chọn cột mã đặt xe</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết yêu cầu thuê xe</t>
+  </si>
+  <si>
+    <t>Chọn button thanh lý</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang chi tiết hợp đồng và hợp đồng chuyển sang trạng thái Đã thanh lý</t>
+  </si>
+  <si>
+    <t>Chọn button huỷ hợp đồng</t>
+  </si>
+  <si>
+    <t>Hợp đồng chuyển sang trạng thái Đã huỷ</t>
+  </si>
+  <si>
+    <t>Chọn button xoá</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo xác nhận xoá và xoá hợp đồng khỏi danh sách</t>
+  </si>
+  <si>
+    <t>Thêm hợp đồng</t>
+  </si>
+  <si>
+    <t>Chọn button thêm và yêu cầu đặt xe sau đó chọn Thêm chi tiết hợp đồng</t>
+  </si>
+  <si>
+    <t>Hiển thị form thêm chi tiết hợp đồng</t>
+  </si>
+  <si>
+    <t>Bỏ trống số tiền đưa trước</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo không được để trống</t>
+  </si>
+  <si>
+    <t>Bỏ trống đơn giá</t>
+  </si>
+  <si>
+    <t>Bỏ trống thành tiền</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút trang danh sách hợp đồng</t>
+  </si>
+  <si>
+    <t>Kiểm tra vùng nút trang thêm hợp đồng</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Chọn button huỷ</t>
+  </si>
+  <si>
+    <t>Quay lại trang danh sách hợp đồng</t>
+  </si>
+  <si>
+    <t>Chọn button Lưu và In</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chi tiết hợp đồng</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1046,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1056,6 +1137,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,11 +1164,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1496,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1624,10 +1714,10 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1639,8 +1729,8 @@
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="25" t="s">
         <v>111</v>
       </c>
@@ -1650,8 +1740,8 @@
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
@@ -1661,8 +1751,8 @@
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1672,8 +1762,8 @@
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="25" t="s">
         <v>56</v>
       </c>
@@ -1683,8 +1773,8 @@
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="25" t="s">
         <v>58</v>
       </c>
@@ -1694,8 +1784,8 @@
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="25" t="s">
         <v>60</v>
       </c>
@@ -1761,10 +1851,10 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -1776,8 +1866,8 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="25" t="s">
         <v>74</v>
       </c>
@@ -1787,8 +1877,8 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="25" t="s">
         <v>76</v>
       </c>
@@ -1798,10 +1888,10 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1813,8 +1903,8 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="37"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="25" t="s">
         <v>80</v>
       </c>
@@ -1824,7 +1914,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="38" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -1839,7 +1929,7 @@
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="37"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="23" t="s">
         <v>86</v>
       </c>
@@ -1893,10 +1983,10 @@
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -1908,8 +1998,8 @@
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="36"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="25" t="s">
         <v>103</v>
       </c>
@@ -1919,8 +2009,8 @@
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="25" t="s">
         <v>105</v>
       </c>
@@ -1930,8 +2020,8 @@
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="36"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="25" t="s">
         <v>107</v>
       </c>
@@ -1941,8 +2031,8 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="25" t="s">
         <v>106</v>
       </c>
@@ -1952,8 +2042,8 @@
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="25" t="s">
         <v>110</v>
       </c>
@@ -1963,8 +2053,8 @@
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="25" t="s">
         <v>113</v>
       </c>
@@ -1974,8 +2064,8 @@
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="25" t="s">
         <v>58</v>
       </c>
@@ -2041,10 +2131,10 @@
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="40" t="s">
         <v>124</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -2056,8 +2146,8 @@
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="36"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="25" t="s">
         <v>127</v>
       </c>
@@ -2067,8 +2157,8 @@
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="36"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="25" t="s">
         <v>129</v>
       </c>
@@ -2190,10 +2280,10 @@
       <c r="F53" s="20"/>
     </row>
     <row r="54" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -2205,8 +2295,8 @@
       <c r="F54" s="31"/>
     </row>
     <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="25" t="s">
         <v>155</v>
       </c>
@@ -2216,8 +2306,8 @@
       <c r="F55" s="31"/>
     </row>
     <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="25" t="s">
         <v>158</v>
       </c>
@@ -2227,10 +2317,10 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -2242,8 +2332,8 @@
       <c r="F57" s="31"/>
     </row>
     <row r="58" spans="2:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="B58" s="36"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="25" t="s">
         <v>163</v>
       </c>
@@ -2282,7 +2372,7 @@
       <c r="B61" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -2297,7 +2387,7 @@
       <c r="B62" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="25" t="s">
         <v>171</v>
       </c>
@@ -2363,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01270438-8745-B841-99FA-7E7A7E2E8A02}">
-  <dimension ref="B2:F47"/>
+  <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2435,10 +2525,10 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -2450,8 +2540,8 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="21" t="s">
         <v>103</v>
       </c>
@@ -2461,8 +2551,8 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="21" t="s">
         <v>105</v>
       </c>
@@ -2472,8 +2562,8 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="21" t="s">
         <v>189</v>
       </c>
@@ -2483,8 +2573,8 @@
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="21" t="s">
         <v>190</v>
       </c>
@@ -2494,8 +2584,8 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="21" t="s">
         <v>110</v>
       </c>
@@ -2505,8 +2595,8 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="21" t="s">
         <v>113</v>
       </c>
@@ -2516,8 +2606,8 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="36"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="21" t="s">
         <v>58</v>
       </c>
@@ -2542,10 +2632,10 @@
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="44" t="s">
         <v>191</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -2557,8 +2647,8 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="21" t="s">
         <v>193</v>
       </c>
@@ -2637,10 +2727,10 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="40" t="s">
         <v>205</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -2652,8 +2742,8 @@
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="21" t="s">
         <v>103</v>
       </c>
@@ -2663,8 +2753,8 @@
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="21" t="s">
         <v>219</v>
       </c>
@@ -2674,8 +2764,8 @@
       <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="21" t="s">
         <v>171</v>
       </c>
@@ -2685,8 +2775,8 @@
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="21" t="s">
         <v>221</v>
       </c>
@@ -2696,10 +2786,10 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="44" t="s">
         <v>223</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2711,8 +2801,8 @@
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="36"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="21" t="s">
         <v>225</v>
       </c>
@@ -2737,10 +2827,10 @@
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="40" t="s">
         <v>230</v>
       </c>
       <c r="D30" s="21" t="s">
@@ -2752,8 +2842,8 @@
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="21" t="s">
         <v>219</v>
       </c>
@@ -2763,8 +2853,8 @@
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="21" t="s">
         <v>233</v>
       </c>
@@ -2774,8 +2864,8 @@
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="21" t="s">
         <v>171</v>
       </c>
@@ -2785,8 +2875,8 @@
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="21" t="s">
         <v>221</v>
       </c>
@@ -2796,10 +2886,10 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
       <c r="D35" s="21" t="s">
@@ -2811,8 +2901,8 @@
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="36"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="21" t="s">
         <v>239</v>
       </c>
@@ -2869,11 +2959,11 @@
       <c r="C40" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="18" t="s">
@@ -2888,39 +2978,39 @@
       <c r="E41" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="40" t="s">
         <v>247</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="25" t="s">
         <v>254</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="44" t="s">
         <v>256</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -2929,11 +3019,11 @@
       <c r="E44" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="37"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="25" t="s">
         <v>258</v>
       </c>
@@ -2958,34 +3048,49 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17">
+      <c r="B47" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="17">
         <v>4</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C48" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,219 +3100,204 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F0715A-27DB-DD4D-81B1-3B7ACF8E7DFD}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="B5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B7" s="38"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/shared/test/TestCase_Nhom13.xlsx
+++ b/shared/test/TestCase_Nhom13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquocvy/Documents/PhamQuocVy/quan_ly_thue_xe/shared/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CarRentalManagement\shared\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5559614E-8CE0-9944-AD6A-595585B6F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF11364-0159-489C-B46E-C2CD860C6958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase EndUser" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="466">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -1468,6 +1467,9 @@
   </si>
   <si>
     <t>7.6</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1604,9 +1606,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1664,18 +1665,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1695,32 +1690,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1758,11 +1732,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2177,856 +2190,966 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="F4" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="F5" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="F6" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="F7" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
+      <c r="F8" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="29" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="15" t="s">
+      <c r="F10" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="15" t="s">
+      <c r="F11" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="15" t="s">
+      <c r="F12" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="15" t="s">
+      <c r="F13" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="15" t="s">
+      <c r="F14" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="15" t="s">
+      <c r="F15" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="F16" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="F17" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="F18" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+      <c r="F19" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="15" t="s">
+      <c r="F21" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="15" t="s">
+      <c r="F22" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29" t="s">
+      <c r="F23" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="15" t="s">
+      <c r="F24" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29" t="s">
+      <c r="F25" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="30"/>
-      <c r="C27" s="13" t="s">
+      <c r="F26" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
+      <c r="F27" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
+      <c r="F28" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29" t="s">
+      <c r="F30" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="15" t="s">
+      <c r="F31" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="15" t="s">
+      <c r="F32" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="15" t="s">
+      <c r="F33" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="15" t="s">
+      <c r="F34" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="15" t="s">
+      <c r="F35" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="44"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="15" t="s">
+      <c r="F36" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="15" t="s">
+      <c r="F37" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="8" t="s">
+      <c r="F38" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+      <c r="F39" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="7">
+      <c r="F40" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="8" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="57"/>
+    </row>
+    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29" t="s">
+      <c r="F42" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="15" t="s">
+      <c r="F43" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="44"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="29"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="15" t="s">
+      <c r="F44" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="44"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="22" t="s">
+      <c r="F45" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
+      <c r="F46" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="8" t="s">
+      <c r="F47" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="7">
+      <c r="F48" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
         <v>6</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="8" t="s">
+      <c r="D49" s="18"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="8" t="s">
+      <c r="F50" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="8" t="s">
+      <c r="F51" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="8" t="s">
+      <c r="F52" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="7">
+      <c r="F53" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
         <v>7</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B55" s="29" t="s">
+      <c r="D54" s="18"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B55" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="15" t="s">
+      <c r="F55" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="15" t="s">
+      <c r="F56" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B58" s="29" t="s">
+      <c r="F57" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B58" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="2:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="B59" s="29"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="15" t="s">
+      <c r="F58" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B59" s="44"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="8" t="s">
+      <c r="F59" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="7">
+      <c r="F60" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
         <v>8</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B62" s="8" t="s">
+      <c r="D61" s="18"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="57"/>
+    </row>
+    <row r="62" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="8" t="s">
+      <c r="F62" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="46"/>
+      <c r="D63" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B64" s="8" t="s">
+      <c r="F63" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="8" t="s">
+      <c r="F64" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="21"/>
+      <c r="F65" s="27" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3057,743 +3180,851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01270438-8745-B841-99FA-7E7A7E2E8A02}">
   <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:F50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="F4" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="F5" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="11" t="s">
+      <c r="F6" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="11" t="s">
+      <c r="F7" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="11" t="s">
+      <c r="F8" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="11" t="s">
+      <c r="F9" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="11" t="s">
+      <c r="F10" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="11" t="s">
+      <c r="F11" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="11" t="s">
+      <c r="F12" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
+      <c r="F13" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29" t="s">
+      <c r="F14" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="11" t="s">
+      <c r="F15" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="F16" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="F17" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
+      <c r="F18" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+      <c r="F20" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29" t="s">
+      <c r="F21" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="11" t="s">
+      <c r="F22" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="11" t="s">
+      <c r="F23" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="11" t="s">
+      <c r="F24" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="11" t="s">
+      <c r="F25" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29" t="s">
+      <c r="F26" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="11" t="s">
+      <c r="F27" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
+      <c r="F28" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29" t="s">
+      <c r="F29" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="11" t="s">
+      <c r="F30" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="11" t="s">
+      <c r="F31" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="11" t="s">
+      <c r="F32" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="11" t="s">
+      <c r="F33" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29" t="s">
+      <c r="F34" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="11" t="s">
+      <c r="F35" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="44"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B37" s="8" t="s">
+      <c r="F36" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
+      <c r="F37" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="7">
+      <c r="F38" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="8" t="s">
+      <c r="F40" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B42" s="29" t="s">
+      <c r="F41" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="26"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="15" t="s">
+      <c r="F42" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29" t="s">
+      <c r="F43" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="15" t="s">
+      <c r="F44" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="45"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="26"/>
-    </row>
-    <row r="46" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
+      <c r="F45" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
+      <c r="F46" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="7">
+      <c r="F47" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
         <v>4</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="8" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="8" t="s">
+      <c r="F49" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="7">
+      <c r="F50" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
         <v>5</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="8" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="29" t="s">
+      <c r="F52" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F53" s="26"/>
-    </row>
-    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="30"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="15" t="s">
+      <c r="F53" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F54" s="26"/>
-    </row>
-    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29" t="s">
+      <c r="F54" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="22" t="s">
+      <c r="F55" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="22" t="s">
+      <c r="F56" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="23" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B6:B13"/>
@@ -3806,14 +4037,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3825,514 +4048,586 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F0715A-27DB-DD4D-81B1-3B7ACF8E7DFD}">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:E41"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
+      <c r="F4" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="5" t="s">
+      <c r="F5" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B7" s="29"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="5" t="s">
+      <c r="F6" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="5" t="s">
+      <c r="F7" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="5" t="s">
+      <c r="F8" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B10" s="29" t="s">
+      <c r="F9" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="5" t="s">
+      <c r="F10" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="5" t="s">
+      <c r="F11" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="5" t="s">
+      <c r="F12" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29" t="s">
+      <c r="F13" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="5" t="s">
+      <c r="F14" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="F15" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
+      <c r="F16" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="29" t="s">
+      <c r="F18" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="5" t="s">
+      <c r="F19" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="5" t="s">
+      <c r="F20" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="30"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="5" t="s">
+      <c r="F21" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29" t="s">
+      <c r="F22" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="5" t="s">
+      <c r="F23" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="5" t="s">
+      <c r="F24" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="5" t="s">
+      <c r="F25" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="5" t="s">
+      <c r="F26" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29" t="s">
+      <c r="F27" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="5" t="s">
+      <c r="F28" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
+      <c r="F29" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="7">
+      <c r="F30" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
         <v>3</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29" t="s">
+      <c r="F32" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="30"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="5" t="s">
+      <c r="F33" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="45"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="30"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="42" t="s">
+      <c r="F34" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B36" s="30"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="42" t="s">
+      <c r="F35" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29" t="s">
+      <c r="F36" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="42" t="s">
+      <c r="F37" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="42" t="s">
+      <c r="F38" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="43" t="s">
+      <c r="F39" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="8" t="s">
+      <c r="F40" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="28" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4362,1193 +4657,1371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862FA523-0B51-6D4A-91A8-B5E37B406A12}">
   <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="28" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="35" t="s">
+      <c r="F4" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="18" t="s">
+      <c r="F5" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="35" t="s">
+      <c r="F6" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="37" t="s">
+      <c r="F7" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="37" t="s">
+      <c r="F8" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="F9" s="51"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="37" t="s">
+      <c r="F9" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="51"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="35" t="s">
+      <c r="F10" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="51"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="37" t="s">
+      <c r="F11" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="35" t="s">
+      <c r="F12" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37" t="s">
+      <c r="F13" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="37" t="s">
+      <c r="F14" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="37" t="s">
+      <c r="F15" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="37" t="s">
+      <c r="F16" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="37" t="s">
+      <c r="F17" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="F18" s="51"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="35" t="s">
+      <c r="F18" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="37" t="s">
+      <c r="F19" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="28" t="s">
+      <c r="F20" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48">
+      <c r="F21" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38">
         <v>2</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="28" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F23" s="51"/>
-    </row>
-    <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
-      <c r="B24" s="35" t="s">
+      <c r="F23" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F24" s="51"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="18" t="s">
+      <c r="F24" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F25" s="51"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="35" t="s">
+      <c r="F25" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="37" t="s">
+      <c r="F26" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="F27" s="51"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="35" t="s">
+      <c r="F27" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F28" s="51"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="37" t="s">
+      <c r="F28" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="F29" s="51"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="28" t="s">
+      <c r="F29" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48">
+      <c r="F30" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38">
         <v>3</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="28" t="s">
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="37" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="F32" s="51"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="35" t="s">
+      <c r="F32" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="37" t="s">
+      <c r="F33" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="F34" s="51"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29" t="s">
+      <c r="F34" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="13" t="s">
+      <c r="F35" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29" t="s">
+      <c r="F36" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="37" t="s">
+      <c r="F37" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="37" t="s">
+      <c r="F38" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+      <c r="F39" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="48">
+      <c r="F40" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="38">
         <v>4</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="28" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="41"/>
+      <c r="E42" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="F42" s="51"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="35" t="s">
+      <c r="F42" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F43" s="51"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="53"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="18" t="s">
+      <c r="F43" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="54"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="F44" s="51"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35" t="s">
+      <c r="F44" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="F45" s="51"/>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="53"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="37" t="s">
+      <c r="F45" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="54"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="F46" s="51"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="35" t="s">
+      <c r="F46" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="F47" s="51"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="53"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="37" t="s">
+      <c r="F47" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="F48" s="51"/>
-    </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="28" t="s">
+      <c r="F48" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="48">
+      <c r="F49" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38">
         <v>5</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="8" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="37" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="29" t="s">
+      <c r="F51" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="30"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="13" t="s">
+      <c r="F52" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="45"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="F53" s="26"/>
-    </row>
-    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="30"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="36" t="s">
+      <c r="F53" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F54" s="26"/>
-    </row>
-    <row r="55" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B55" s="30"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="36" t="s">
+      <c r="F54" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B55" s="45"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="29" t="s">
+      <c r="F55" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="30"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="36" t="s">
+      <c r="F56" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="45"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="29" t="s">
+      <c r="F57" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="37" t="s">
+      <c r="F58" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="36" t="s">
+      <c r="F59" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29" t="s">
+      <c r="F60" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B62" s="30"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="36" t="s">
+      <c r="F61" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="45"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="8" t="s">
+      <c r="F62" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="48">
+      <c r="F63" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="38">
         <v>6</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-    </row>
-    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="8" t="s">
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="37" t="s">
+      <c r="D65" s="23"/>
+      <c r="E65" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="F65" s="26"/>
-    </row>
-    <row r="66" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="29" t="s">
+      <c r="F65" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="30"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="13" t="s">
+      <c r="F66" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="45"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="30"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="36" t="s">
+      <c r="F67" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="45"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="30"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="36" t="s">
+      <c r="F68" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="45"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B70" s="30"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="36" t="s">
+      <c r="F69" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B70" s="45"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="F70" s="26"/>
-    </row>
-    <row r="71" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B71" s="29" t="s">
+      <c r="F70" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="36" t="s">
+      <c r="F71" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="F72" s="26"/>
-    </row>
-    <row r="73" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="29" t="s">
+      <c r="F72" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="30"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="36" t="s">
+      <c r="F73" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="45"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="F74" s="26"/>
-    </row>
-    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="8" t="s">
+      <c r="F74" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="48">
+      <c r="F75" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="38">
         <v>7</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-    </row>
-    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="8" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="37" t="s">
+      <c r="D77" s="23"/>
+      <c r="E77" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="40" t="s">
+      <c r="F77" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="38"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="36" t="s">
+      <c r="F78" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="53"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="38"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="36" t="s">
+      <c r="F79" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="53"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B81" s="39"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="36" t="s">
+      <c r="F80" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B81" s="52"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B82" s="40" t="s">
+      <c r="F81" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B82" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="39"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="36" t="s">
+      <c r="F82" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="52"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="40" t="s">
+      <c r="F83" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="39"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="36" t="s">
+      <c r="F84" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="52"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="40" t="s">
+      <c r="F85" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="38"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="36" t="s">
+      <c r="F86" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="53"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="E87" s="54" t="s">
+      <c r="E87" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="38"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="36" t="s">
+      <c r="F87" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="53"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="E88" s="54" t="s">
+      <c r="E88" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="39"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="36" t="s">
+      <c r="F88" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="52"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="E89" s="54" t="s">
+      <c r="E89" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="8" t="s">
+      <c r="F89" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="42" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C66:C70"/>
@@ -5559,34 +6032,18 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C82:C83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
